--- a/data/trans_dic/P44A$analisis-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.2797565605023126</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1100350973497065</v>
+        <v>0.1100350973497066</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.339038458581739</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05460618393414699</v>
+        <v>0.05387462348039829</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1318834119824875</v>
+        <v>0.1338569388422086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06858618685590444</v>
+        <v>0.06823934737193454</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08889129135947618</v>
+        <v>0.08690155811754038</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04521245957936079</v>
+        <v>0.04758897405885148</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.128361929923187</v>
+        <v>0.124723732026538</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1404255223240841</v>
+        <v>0.1504161519934357</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06805645912645074</v>
+        <v>0.06857266828116514</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4694934249394587</v>
+        <v>0.4629705051565534</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4745025541616315</v>
+        <v>0.4724377766301212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1657935379616059</v>
+        <v>0.1676213970554138</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6175930958776366</v>
+        <v>0.6890198728453155</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.64480999326533</v>
+        <v>0.6554711361850403</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.142589436667917</v>
+        <v>0.1482370422455306</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.456577242064165</v>
+        <v>0.4772038572320522</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4482808887192283</v>
+        <v>0.4358874056883129</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1439036253142021</v>
+        <v>0.1447301225584144</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.5558019104092556</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1494552297085304</v>
+        <v>0.1494552297085303</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.6096226799507254</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0925533544185633</v>
+        <v>0.09255335441856331</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.2911203360276801</v>
@@ -787,26 +787,26 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3557060594530663</v>
+        <v>0.3484185819799679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08102200948430971</v>
+        <v>0.08390352005883772</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1402896105162458</v>
+        <v>0.2219447221832563</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.04463369196891996</v>
+        <v>0.04189141979164963</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1197769034253494</v>
+        <v>0.1211417682268845</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2931104213297115</v>
+        <v>0.2843757217227076</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08442211096790883</v>
+        <v>0.08110662257589639</v>
       </c>
     </row>
     <row r="9">
@@ -817,29 +817,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3962323404133192</v>
+        <v>0.3779621372054217</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7452914905765786</v>
+        <v>0.751083550169817</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2384592054130872</v>
+        <v>0.2391707673967493</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8907623566325514</v>
+        <v>0.8922093679573668</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.1689618948634055</v>
+        <v>0.1599719885275036</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4947722702148225</v>
+        <v>0.5318577269251598</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6554364073832782</v>
+        <v>0.6584017873451784</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1909662550965515</v>
+        <v>0.1888046765478278</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.3475520435040251</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1709186983947832</v>
+        <v>0.1709186983947831</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.09874327637940622</v>
@@ -869,7 +869,7 @@
         <v>0.1348202074746092</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.0549686277300335</v>
+        <v>0.05496862773003349</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2833156862655229</v>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1687321637517033</v>
+        <v>0.1716286708060405</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1867028915465891</v>
+        <v>0.1849872267684927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1060458354523412</v>
+        <v>0.1068902464196685</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01699196855184158</v>
+        <v>0.01718158037158886</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1423591583353057</v>
+        <v>0.1457879227790474</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1638931489089059</v>
+        <v>0.1666307441514603</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09171326335386699</v>
+        <v>0.08801285400117877</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5723489402649046</v>
+        <v>0.5767270928981941</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5666235823912101</v>
+        <v>0.5553671932283488</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.248965755999069</v>
+        <v>0.2478601164144401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4607288684642267</v>
+        <v>0.4616921141667641</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5595755925463555</v>
+        <v>0.6388286285951414</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1495424797350641</v>
+        <v>0.1435433487200349</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4519472442788985</v>
+        <v>0.4912192913854955</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4959528899146491</v>
+        <v>0.4731279243160805</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.204903512775443</v>
+        <v>0.1976271639081176</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.426966330084486</v>
+        <v>0.4481133170642232</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1772804044267859</v>
+        <v>0.1880601717766904</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1005805710482533</v>
+        <v>0.1023112494063297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2236847926096479</v>
+        <v>0.2843520122116842</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1328373006927351</v>
+        <v>0.107041549417159</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05410978058434941</v>
+        <v>0.04772087303184697</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4455654183324567</v>
+        <v>0.4365627398432412</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1984198167358536</v>
+        <v>0.1893384316408644</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09199824451480219</v>
+        <v>0.09487321302479813</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7716223729525988</v>
+        <v>0.7746148437457555</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.432262492057314</v>
+        <v>0.4423916938194752</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1991357579639963</v>
+        <v>0.1958010771656415</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7776912489855836</v>
+        <v>0.7878353276689944</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5179538077562665</v>
+        <v>0.5234861216708603</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1430439993647963</v>
+        <v>0.1470305831283048</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7264392277833376</v>
+        <v>0.7253023011561491</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4183033172769396</v>
+        <v>0.4102227140592291</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1635019686179223</v>
+        <v>0.1674187810356383</v>
       </c>
     </row>
     <row r="16">
@@ -1110,28 +1110,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2215744323231378</v>
+        <v>0.2470160629311258</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05135476750476566</v>
+        <v>0.0515456822550486</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0789771862941951</v>
+        <v>0.07721044724191489</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2865620866446851</v>
+        <v>0.2754163739470677</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1019322434467227</v>
+        <v>0.1023581655943227</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09236280360972562</v>
+        <v>0.09224365521297075</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3202646937925336</v>
+        <v>0.3209828452476489</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09539310444939064</v>
+        <v>0.09258250175806441</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6128047597246854</v>
+        <v>0.6215229819046552</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6127342512464026</v>
+        <v>0.6136078305402313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1899190375987613</v>
+        <v>0.1854910994954976</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4145998278602326</v>
+        <v>0.4167977970698309</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7144223772289074</v>
+        <v>0.6783243799342724</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2015862517333885</v>
+        <v>0.2008976254871264</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3824919451656758</v>
+        <v>0.3793185921911721</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5877339666051753</v>
+        <v>0.6041064218611699</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.170502459575091</v>
+        <v>0.172325266006556</v>
       </c>
     </row>
     <row r="19">
@@ -1215,22 +1215,22 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.1658062256085814</v>
+        <v>0.1610770232229627</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2201903336563076</v>
+        <v>0.2166650268120702</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1104273764120795</v>
+        <v>0.1103997491776608</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1658062256085814</v>
+        <v>0.1610770232229627</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2201903336563076</v>
+        <v>0.2166650268120702</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.104201374655209</v>
+        <v>0.107198057421326</v>
       </c>
     </row>
     <row r="21">
@@ -1244,22 +1244,22 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.5029750152928341</v>
+        <v>0.5102908588093248</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.529173732621383</v>
+        <v>0.5373208437099815</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2112655826809249</v>
+        <v>0.2077554059886243</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5029750152928341</v>
+        <v>0.5102908588093248</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.529173732621383</v>
+        <v>0.5373208437099815</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2012140610051608</v>
+        <v>0.2026997015055088</v>
       </c>
     </row>
     <row r="22">
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2958959896920056</v>
+        <v>0.3008937213192656</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1103416108864764</v>
+        <v>0.1091253246199638</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.229307111829008</v>
+        <v>0.238905622468849</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2432494849621216</v>
+        <v>0.2530328597774228</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09689027595178196</v>
+        <v>0.09510441539208984</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2824417553684336</v>
+        <v>0.2821128884564602</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2875715304575992</v>
+        <v>0.291447480459953</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1112576705187494</v>
+        <v>0.1101654374477799</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4495511935597863</v>
+        <v>0.448797313038644</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1640399568444193</v>
+        <v>0.1645590640560382</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4161132488025425</v>
+        <v>0.4172955459679225</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4287686741224669</v>
+        <v>0.4299872722646111</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1418506626157996</v>
+        <v>0.1393459083318807</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.415077923380692</v>
+        <v>0.4165373372212711</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4114766958977566</v>
+        <v>0.4109216746879998</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1444743487941806</v>
+        <v>0.145538283605875</v>
       </c>
     </row>
     <row r="25">
@@ -1599,31 +1599,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4080</v>
+        <v>4141</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9351</v>
+        <v>9303</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1189</v>
+        <v>1162</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3757</v>
+        <v>3954</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4175</v>
+        <v>4057</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5902</v>
+        <v>6321</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14933</v>
+        <v>15046</v>
       </c>
     </row>
     <row r="7">
@@ -1634,31 +1634,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8993</v>
+        <v>8868</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14680</v>
+        <v>14616</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22603</v>
+        <v>22853</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8260</v>
+        <v>9215</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7150</v>
+        <v>7269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11847</v>
+        <v>12317</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14852</v>
+        <v>15523</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18839</v>
+        <v>18319</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31576</v>
+        <v>31757</v>
       </c>
     </row>
     <row r="8">
@@ -1746,26 +1746,26 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9585</v>
+        <v>9389</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6966</v>
+        <v>7214</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1166</v>
+        <v>1844</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>2455</v>
+        <v>2304</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2939</v>
+        <v>2972</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9457</v>
+        <v>9175</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11902</v>
+        <v>11435</v>
       </c>
     </row>
     <row r="11">
@@ -1776,29 +1776,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6430</v>
+        <v>6134</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20083</v>
+        <v>20239</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20501</v>
+        <v>20562</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7400</v>
+        <v>7412</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>9295</v>
+        <v>8800</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12140</v>
+        <v>13050</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21146</v>
+        <v>21242</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26923</v>
+        <v>26619</v>
       </c>
     </row>
     <row r="12">
@@ -1883,13 +1883,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4942</v>
+        <v>5027</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5453</v>
+        <v>5403</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9697</v>
+        <v>9774</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5721</v>
+        <v>5859</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5992</v>
+        <v>6092</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11690</v>
+        <v>11218</v>
       </c>
     </row>
     <row r="15">
@@ -1918,31 +1918,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16763</v>
+        <v>16891</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16548</v>
+        <v>16219</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22765</v>
+        <v>22664</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5023</v>
+        <v>5033</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4115</v>
+        <v>4698</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5387</v>
+        <v>5170</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18164</v>
+        <v>19742</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18131</v>
+        <v>17297</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>26117</v>
+        <v>25189</v>
       </c>
     </row>
     <row r="16">
@@ -2027,31 +2027,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15467</v>
+        <v>16233</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8750</v>
+        <v>9282</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17490</v>
+        <v>17791</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3240</v>
+        <v>4119</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3229</v>
+        <v>2602</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5060</v>
+        <v>4463</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22595</v>
+        <v>22139</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14616</v>
+        <v>13947</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>24602</v>
+        <v>25370</v>
       </c>
     </row>
     <row r="19">
@@ -2062,31 +2062,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27952</v>
+        <v>28060</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21335</v>
+        <v>21835</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>34628</v>
+        <v>34048</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11266</v>
+        <v>11413</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12589</v>
+        <v>12723</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13378</v>
+        <v>13751</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>36838</v>
+        <v>36781</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>30813</v>
+        <v>30217</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>43723</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="20">
@@ -2174,28 +2174,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5150</v>
+        <v>5741</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3748</v>
+        <v>3762</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2127</v>
+        <v>2079</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7855</v>
+        <v>7549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>12237</v>
+        <v>12288</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16222</v>
+        <v>16258</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>18414</v>
+        <v>17871</v>
       </c>
     </row>
     <row r="23">
@@ -2206,31 +2206,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5190</v>
+        <v>5264</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14241</v>
+        <v>14261</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13860</v>
+        <v>13537</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11165</v>
+        <v>11224</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19583</v>
+        <v>18594</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24201</v>
+        <v>24118</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13540</v>
+        <v>13428</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>29770</v>
+        <v>30599</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32912</v>
+        <v>33264</v>
       </c>
     </row>
     <row r="24">
@@ -2314,22 +2314,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>5299</v>
+        <v>5148</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>8685</v>
+        <v>8546</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>14601</v>
+        <v>14597</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5299</v>
+        <v>5148</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>8685</v>
+        <v>8546</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>14179</v>
+        <v>14587</v>
       </c>
     </row>
     <row r="27">
@@ -2343,22 +2343,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>16075</v>
+        <v>16308</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20872</v>
+        <v>21193</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>27934</v>
+        <v>27470</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>16075</v>
+        <v>16308</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20872</v>
+        <v>21193</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>27380</v>
+        <v>27582</v>
       </c>
     </row>
     <row r="28">
@@ -2443,31 +2443,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>47250</v>
+        <v>48049</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>62284</v>
+        <v>61598</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>24297</v>
+        <v>25314</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>27953</v>
+        <v>29078</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>50375</v>
+        <v>49446</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>60817</v>
+        <v>60746</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>78968</v>
+        <v>80032</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>120646</v>
+        <v>119462</v>
       </c>
     </row>
     <row r="31">
@@ -2478,31 +2478,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>71787</v>
+        <v>71667</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>92595</v>
+        <v>92888</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>44091</v>
+        <v>44216</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>49272</v>
+        <v>49412</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>73751</v>
+        <v>72448</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>89377</v>
+        <v>89691</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>112992</v>
+        <v>112840</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>156666</v>
+        <v>157819</v>
       </c>
     </row>
     <row r="32">
